--- a/data/trans_dic/P2A_psíq_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_psíq_R-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.002678002295030352</v>
+        <v>0.002699587046374144</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01532681102969498</v>
+        <v>0.01461203476820223</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.004472439843260483</v>
+        <v>0.004405011587692499</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.005252156432863661</v>
+        <v>0.00499873051695333</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.001384096489353878</v>
+        <v>0.001384068425229842</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0192240191176143</v>
+        <v>0.01958166529940087</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.00575150003683398</v>
+        <v>0.005692153218098575</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01783683820938985</v>
+        <v>0.0182808067945986</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.002206135947484893</v>
+        <v>0.002672223074333961</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01995742880962292</v>
+        <v>0.01946944662357763</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.006507965990584518</v>
+        <v>0.006642623483898205</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01342890742936315</v>
+        <v>0.01350554567864072</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01440871820957257</v>
+        <v>0.0168528243250919</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04516596890332887</v>
+        <v>0.04294639934839149</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02097113638340535</v>
+        <v>0.01979505758214907</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02066858985218178</v>
+        <v>0.02048317136996273</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01136374264280481</v>
+        <v>0.01269770389848716</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04789655875063736</v>
+        <v>0.04657170548076504</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02298826073548935</v>
+        <v>0.02317628678345798</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03707037307620337</v>
+        <v>0.0374770706899597</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01081729765125354</v>
+        <v>0.0108442706980791</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03955620359330323</v>
+        <v>0.03902384446273963</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01746743054577789</v>
+        <v>0.01775079738891103</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02589330987731281</v>
+        <v>0.02532779772668335</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.006524964684190679</v>
+        <v>0.006121648750819728</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.008494748064632398</v>
+        <v>0.008520784645090271</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.006226245275730042</v>
+        <v>0.006565047129687012</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0117110713968675</v>
+        <v>0.01188586350829079</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.006052884565282447</v>
+        <v>0.006222438523997162</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01061681221812968</v>
+        <v>0.01141462798344002</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.009154872242423437</v>
+        <v>0.008842429786406317</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02059401433918365</v>
+        <v>0.02073049233859993</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.007681998252526325</v>
+        <v>0.00766663251477757</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01155458243559515</v>
+        <v>0.01200694436935193</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.009832723356222629</v>
+        <v>0.009283054829974094</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01832121960850928</v>
+        <v>0.01803658618990578</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02332769101195283</v>
+        <v>0.02127436224722483</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02397040707946996</v>
+        <v>0.0241179082147072</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02146366806737467</v>
+        <v>0.02149546965473667</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02981983085856512</v>
+        <v>0.02995404455054218</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02178618603645716</v>
+        <v>0.02132807769426868</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02843094401360203</v>
+        <v>0.02809830877059753</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02495534710772172</v>
+        <v>0.02634287338525371</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03791067392621417</v>
+        <v>0.03831311236343572</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0186781360971461</v>
+        <v>0.01832684254693917</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0239005511673036</v>
+        <v>0.0234650002625901</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02087550849185961</v>
+        <v>0.02096909752100081</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03103620584466588</v>
+        <v>0.03011283713880845</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001447902950731</v>
+        <v>0.001447651586171843</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004188682844936933</v>
+        <v>0.004182282012733453</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001484267387953416</v>
+        <v>0.001566349392941336</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01871190090021713</v>
+        <v>0.01914031669962624</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01016339117349515</v>
+        <v>0.01003467587933335</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0053053983368104</v>
+        <v>0.00529014507869025</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.005142640535635344</v>
+        <v>0.004832941969458748</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02339800742072481</v>
+        <v>0.02276349607485614</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.007009156757155958</v>
+        <v>0.00744395048580975</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.007247489446101499</v>
+        <v>0.007160638030113822</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.004779257839174998</v>
+        <v>0.004450171025305197</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02516366104877033</v>
+        <v>0.02508110313266553</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01498843424655903</v>
+        <v>0.01567872328611446</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02376193376056819</v>
+        <v>0.02323089237498544</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01472353120034302</v>
+        <v>0.0140005585825965</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04645107222127338</v>
+        <v>0.04688994088038078</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03132089833689484</v>
+        <v>0.02998144551850803</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02111794619115001</v>
+        <v>0.02102796016229333</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02256797022266748</v>
+        <v>0.02171530052375212</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0518865128255411</v>
+        <v>0.05109943446360552</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01927819161540789</v>
+        <v>0.02067101120871674</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01916299736660407</v>
+        <v>0.01786664906294314</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01492182582541137</v>
+        <v>0.01501208212462464</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04419532906761339</v>
+        <v>0.04389109172464197</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.01585486830568943</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.03119226371675657</v>
+        <v>0.03119226371675658</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.00437569691478475</v>
+        <v>0.0045155513482605</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01397202528798528</v>
+        <v>0.01309860065315577</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.003901024331692874</v>
+        <v>0.003126775899452624</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01978705534502251</v>
+        <v>0.01948982677926634</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.006731857248540129</v>
+        <v>0.006548796951196406</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01574859858078082</v>
+        <v>0.01624915701739234</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01453250239130525</v>
+        <v>0.01458329400883668</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02451757074944353</v>
+        <v>0.02427806090203392</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.006672852784792257</v>
+        <v>0.00681530218593337</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01715048245843529</v>
+        <v>0.01659863304436193</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.00993161835428282</v>
+        <v>0.0110652133094145</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02450655401218079</v>
+        <v>0.0242613146759408</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01899848324929345</v>
+        <v>0.01865335005383986</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03588859346181275</v>
+        <v>0.03466207832957224</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01654876304531813</v>
+        <v>0.01524834946521277</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04513274203881622</v>
+        <v>0.04256404189634087</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02072720383747722</v>
+        <v>0.02070133536001606</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03520229892759801</v>
+        <v>0.03675267932637476</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03571615488605445</v>
+        <v>0.03462537523662535</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04298937350173858</v>
+        <v>0.04242640955216519</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01646218549636996</v>
+        <v>0.0171713896083386</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03066931707330341</v>
+        <v>0.03063755686562749</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02225337775376239</v>
+        <v>0.02312023070308981</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03967040547003892</v>
+        <v>0.03895476128503068</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.01616244951944801</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.03054898305467278</v>
+        <v>0.03054898305467277</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.01039950783791335</v>
@@ -1241,7 +1241,7 @@
         <v>0.01285362159469058</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.02685906644448946</v>
+        <v>0.02685906644448947</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.005705235316426005</v>
+        <v>0.00600103325406212</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01414848680079595</v>
+        <v>0.01441671680108737</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.006449653830936497</v>
+        <v>0.006543443127661691</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01830734087384408</v>
+        <v>0.01770195208783682</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.008275318145812454</v>
+        <v>0.00848755459349949</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01615517333972397</v>
+        <v>0.01617893488136041</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01226777890256199</v>
+        <v>0.01216397157713051</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02598682349423515</v>
+        <v>0.02570243198526822</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.008233181728571208</v>
+        <v>0.0079664480163226</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01610657048224176</v>
+        <v>0.01633018091644395</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01030852208111172</v>
+        <v>0.01007083777544465</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02381487431369245</v>
+        <v>0.02344928920123319</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0128682468468541</v>
+        <v>0.01311863160486967</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02363104247314323</v>
+        <v>0.02441980234409478</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01343922874201816</v>
+        <v>0.01337330100080003</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02942885082304101</v>
+        <v>0.02860337970124353</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01597138575777369</v>
+        <v>0.01610494862382915</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02607362106024681</v>
+        <v>0.02607739144409229</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02099387039241698</v>
+        <v>0.02124415780359296</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03595319962307084</v>
+        <v>0.03553649131119944</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01332964997505975</v>
+        <v>0.01313559146719461</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02299264258588515</v>
+        <v>0.02349212333342974</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01588208482769213</v>
+        <v>0.01576749351607956</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03110430454993354</v>
+        <v>0.03075495177229562</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1859</v>
+        <v>1874</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10782</v>
+        <v>10279</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3018</v>
+        <v>2973</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3628</v>
+        <v>3453</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>953</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>13400</v>
+        <v>13649</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3870</v>
+        <v>3830</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>13095</v>
+        <v>13421</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>3050</v>
+        <v>3694</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>27951</v>
+        <v>27267</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>8770</v>
+        <v>8952</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>19135</v>
+        <v>19244</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10000</v>
+        <v>11696</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>31773</v>
+        <v>30211</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14151</v>
+        <v>13358</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>14276</v>
+        <v>14148</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7822</v>
+        <v>8740</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>33386</v>
+        <v>32463</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>15467</v>
+        <v>15594</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>27216</v>
+        <v>27515</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>14953</v>
+        <v>14991</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>55399</v>
+        <v>54654</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>23540</v>
+        <v>23922</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>36895</v>
+        <v>36089</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6276</v>
+        <v>5888</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>8647</v>
+        <v>8674</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6366</v>
+        <v>6712</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>12284</v>
+        <v>12467</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>5862</v>
+        <v>6026</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>10959</v>
+        <v>11782</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>9548</v>
+        <v>9222</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>22066</v>
+        <v>22212</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>14828</v>
+        <v>14798</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>23688</v>
+        <v>24616</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>20308</v>
+        <v>19173</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>38848</v>
+        <v>38245</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>22437</v>
+        <v>20462</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>24401</v>
+        <v>24551</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>21945</v>
+        <v>21978</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>31279</v>
+        <v>31419</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>21098</v>
+        <v>20654</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>29346</v>
+        <v>29003</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>26026</v>
+        <v>27473</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>40620</v>
+        <v>41052</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>36052</v>
+        <v>35374</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>48999</v>
+        <v>48106</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>43115</v>
+        <v>43308</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>65809</v>
+        <v>63851</v>
       </c>
     </row>
     <row r="12">
@@ -1963,37 +1963,37 @@
         <v>982</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3173</v>
+        <v>3169</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1127</v>
+        <v>1190</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>15027</v>
+        <v>15371</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6950</v>
+        <v>6862</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4123</v>
+        <v>4111</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>4037</v>
+        <v>3794</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>19005</v>
+        <v>18490</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>9549</v>
+        <v>10141</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>11123</v>
+        <v>10990</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>7382</v>
+        <v>6874</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>40648</v>
+        <v>40514</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10170</v>
+        <v>10638</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18003</v>
+        <v>17600</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11183</v>
+        <v>10634</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>37304</v>
+        <v>37656</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>21419</v>
+        <v>20503</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>16412</v>
+        <v>16342</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>17716</v>
+        <v>17047</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>42145</v>
+        <v>41506</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>26264</v>
+        <v>28161</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>29411</v>
+        <v>27422</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>23048</v>
+        <v>23187</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>71390</v>
+        <v>70899</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4123</v>
+        <v>4255</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>13242</v>
+        <v>12414</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3657</v>
+        <v>2932</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>19590</v>
+        <v>19296</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6992</v>
+        <v>6802</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>16566</v>
+        <v>17093</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>15169</v>
+        <v>15222</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>27436</v>
+        <v>27168</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>13218</v>
+        <v>13500</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>34295</v>
+        <v>33191</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>19678</v>
+        <v>21924</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>51687</v>
+        <v>51170</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>17901</v>
+        <v>17576</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>34013</v>
+        <v>32851</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>15516</v>
+        <v>14296</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>44684</v>
+        <v>42141</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>21528</v>
+        <v>21501</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>37029</v>
+        <v>38660</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>37280</v>
+        <v>36141</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>48107</v>
+        <v>47477</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>32609</v>
+        <v>34014</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>61328</v>
+        <v>61264</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>44092</v>
+        <v>45809</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>83669</v>
+        <v>82160</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>18693</v>
+        <v>19663</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>48484</v>
+        <v>49403</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>21892</v>
+        <v>22211</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>64675</v>
+        <v>62537</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>27964</v>
+        <v>28681</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>57485</v>
+        <v>57570</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>43484</v>
+        <v>43116</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>97112</v>
+        <v>96049</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>54798</v>
+        <v>53023</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>112506</v>
+        <v>114068</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>71530</v>
+        <v>69880</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>173127</v>
+        <v>170470</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>42163</v>
+        <v>42984</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>80978</v>
+        <v>83681</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>45617</v>
+        <v>45394</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>103965</v>
+        <v>101049</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>53970</v>
+        <v>54422</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>92778</v>
+        <v>92791</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>74414</v>
+        <v>75301</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>134355</v>
+        <v>132798</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>88719</v>
+        <v>87427</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>160606</v>
+        <v>164095</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>110204</v>
+        <v>109409</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>226119</v>
+        <v>223580</v>
       </c>
     </row>
     <row r="24">
